--- a/src/database/Cineplexes.xlsx
+++ b/src/database/Cineplexes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohsh\Documents\GitHub\SC2002_Assignment\src\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{22706F30-47E6-4510-875F-F7EE69973078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AF6428E-D35E-4C8F-97D9-98396B3F00C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{672F393E-BA56-4D86-BB72-94FC42BF9FFE}"/>
   </bookViews>
@@ -17,9 +17,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Downtown</t>
   </si>
@@ -116,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,8 +139,8 @@
   </fills>
   <borders count="1">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -172,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -325,25 +322,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,25 +348,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -382,21 +379,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -410,7 +407,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -422,32 +419,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -467,7 +464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3C06-9A2A-4DB8-9F1D-A2F6BA523B00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3C06-9A2A-4DB8-9F1D-A2F6BA523B00}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/src/database/Cineplexes.xlsx
+++ b/src/database/Cineplexes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohsh\Documents\GitHub\SC2002_Assignment\src\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AF6428E-D35E-4C8F-97D9-98396B3F00C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E504C8-2410-493B-9240-22B95B8ECCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{672F393E-BA56-4D86-BB72-94FC42BF9FFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{672F393E-BA56-4D86-BB72-94FC42BF9FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Downtown</t>
   </si>
@@ -74,40 +74,10 @@
     <t>T03</t>
   </si>
   <si>
-    <t>Cinema 1</t>
-  </si>
-  <si>
-    <t>Cinema 2</t>
-  </si>
-  <si>
-    <t>Cinema 3</t>
-  </si>
-  <si>
-    <t>Cinema 4</t>
-  </si>
-  <si>
-    <t>Cinema 5</t>
-  </si>
-  <si>
-    <t>Cinema 6</t>
-  </si>
-  <si>
-    <t>Cinema 7</t>
-  </si>
-  <si>
-    <t>Cinema 8</t>
-  </si>
-  <si>
-    <t>Cinema 9</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Dolby Atmos</t>
-  </si>
-  <si>
-    <t>Platinum Movie Suites</t>
+    <t>Cineplex</t>
+  </si>
+  <si>
+    <t>CinemaID</t>
   </si>
 </sst>
 </file>
@@ -465,140 +435,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3C06-9A2A-4DB8-9F1D-A2F6BA523B00}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
